--- a/Documentation/Finances_carnet_de _produit.xlsx
+++ b/Documentation/Finances_carnet_de _produit.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Desktop\finance\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F4DADD-35AB-4226-A598-FCE8CA8B0A67}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C3EEEA-2AE2-477F-8A3D-8B17777FB9D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>a</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Le système retourne la balance actuelle</t>
+  </si>
+  <si>
+    <t>En tant qu'anonyme je veux pouvoir enregister un nouveau millitant</t>
   </si>
 </sst>
 </file>
@@ -462,8 +465,8 @@
   </sheetPr>
   <dimension ref="A1:I177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="136" workbookViewId="0">
-      <selection activeCell="F22" sqref="F21:F22"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -476,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1"/>
     </row>
